--- a/TestData/InputData_Skills.xlsx
+++ b/TestData/InputData_Skills.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6D947CCD-040F-4181-ABF8-36C7E85D7A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AC57872\PycharmProjects\LMS_API_HACKATHON2122_python\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864CEFC1-7417-44CA-9B18-1D32EB0C044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="19836" windowHeight="11220" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Skills_GET" sheetId="1" r:id="rId1"/>
@@ -21,7 +26,6 @@
     <sheet name="Text_PUT" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:Q3"/>
 </workbook>
 </file>
 
@@ -283,8 +287,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="167" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="165" formatCode="0.00;[Red]0.00"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -468,10 +472,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -758,8 +762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1651,7 +1655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{831B9A0F-C58A-44D6-A65A-90ED40335AB0}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/TestData/InputData_Skills.xlsx
+++ b/TestData/InputData_Skills.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="4"/>
+    <workbookView windowWidth="19815" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="Skills_GET" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,13 @@
     <sheet name="Skills_PUT" sheetId="3" r:id="rId3"/>
     <sheet name="Skills_DELETE" sheetId="4" r:id="rId4"/>
     <sheet name="Skills_Authorization" sheetId="12" r:id="rId5"/>
-    <sheet name="Text_POST" sheetId="10" r:id="rId6"/>
-    <sheet name="Text_PUT" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>Scenario</t>
   </si>
@@ -70,7 +68,7 @@
     <t>POST method for Valid Skill_name</t>
   </si>
   <si>
-    <t>TDD</t>
+    <t>bdd</t>
   </si>
   <si>
     <t>Skill record successfully created</t>
@@ -106,13 +104,16 @@
     <t>POST method for blank Skill_name</t>
   </si>
   <si>
+    <t>POST method for decimal Skill_name</t>
+  </si>
+  <si>
     <t>Update an existing skill record</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>Selenium</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Ruby on Rails</t>
   </si>
   <si>
     <t>Skill record successfully updated</t>
@@ -152,6 +153,9 @@
   </si>
   <si>
     <t>Testng</t>
+  </si>
+  <si>
+    <t>To update Skill name with decimal value</t>
   </si>
   <si>
     <t>User wants to delete with existing Skill_id</t>
@@ -216,21 +220,6 @@
   </si>
   <si>
     <t>To Check Authorization with valid username and password</t>
-  </si>
-  <si>
-    <t>POST method for improper JSON format request Skill_name</t>
-  </si>
-  <si>
-    <t>Git</t>
-  </si>
-  <si>
-    <t>Improper JSON format</t>
-  </si>
-  <si>
-    <t>PUT method for improper JSON format request Skill_name</t>
-  </si>
-  <si>
-    <t>Github</t>
   </si>
 </sst>
 </file>
@@ -238,11 +227,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="176" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -259,11 +248,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -293,6 +277,41 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -301,8 +320,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,31 +330,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,82 +369,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,25 +433,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,157 +601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,32 +679,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -733,9 +696,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,7 +739,31 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,258 +776,237 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="7" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1348,109 +1331,109 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="47.4380952380952" customWidth="1"/>
-    <col min="2" max="2" width="13.8857142857143" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" customWidth="1"/>
-    <col min="4" max="4" width="27.3333333333333" style="5" customWidth="1"/>
+    <col min="2" max="2" width="13.8857142857143" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13" style="12" customWidth="1"/>
+    <col min="4" max="4" width="27.3333333333333" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20">
+      <c r="B2" s="15">
         <v>4</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="15">
         <v>200</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>404</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="15">
         <v>404</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="15">
         <v>404</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="15">
         <v>1.25</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="15">
         <v>404</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15">
         <v>404</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="15" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1463,16 +1446,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="52" customWidth="1"/>
-    <col min="2" max="2" width="17.6666666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="17.6666666666667" style="24" customWidth="1"/>
     <col min="3" max="3" width="12.552380952381" customWidth="1"/>
     <col min="4" max="4" width="53.1047619047619" customWidth="1"/>
   </cols>
@@ -1481,7 +1464,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="25" t="s">
         <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1492,24 +1475,24 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C2">
         <v>201</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="27" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="28" t="s">
         <v>19</v>
       </c>
       <c r="C3">
@@ -1520,10 +1503,10 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="29">
         <v>1000</v>
       </c>
       <c r="C4">
@@ -1534,10 +1517,10 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C5">
@@ -1548,10 +1531,10 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="24" t="s">
         <v>25</v>
       </c>
       <c r="C6">
@@ -1562,14 +1545,28 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="28"/>
       <c r="C7">
         <v>400</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="24">
+        <v>4.5</v>
+      </c>
+      <c r="C8">
+        <v>400</v>
+      </c>
+      <c r="D8" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1582,153 +1579,170 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="42.1047619047619" customWidth="1"/>
-    <col min="2" max="2" width="20.4380952380952" style="5" customWidth="1"/>
-    <col min="3" max="3" width="18.8857142857143" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.4380952380952" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.4380952380952" style="12" customWidth="1"/>
+    <col min="3" max="3" width="18.8857142857143" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.4380952380952" style="12" customWidth="1"/>
     <col min="5" max="5" width="48" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="20">
+      <c r="C2" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="15">
         <v>201</v>
       </c>
-      <c r="E2" s="26" t="s">
-        <v>31</v>
+      <c r="E2" s="22" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="20">
+      <c r="A3" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="15">
         <v>2022</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="20">
+      <c r="C3" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="15">
         <v>404</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="20">
+      <c r="A4" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="15">
         <v>3</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="15">
         <v>400</v>
       </c>
-      <c r="E4" s="26" t="s">
-        <v>35</v>
+      <c r="E4" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="15">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="15">
+        <v>400</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="20">
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15">
+        <v>9</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="15">
+        <v>400</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="15">
         <v>3</v>
       </c>
-      <c r="C5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C7" s="15">
+        <v>456</v>
+      </c>
+      <c r="D7" s="15">
         <v>400</v>
       </c>
-      <c r="E5" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="20">
-        <v>9</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="E7" s="22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="15">
+        <v>404</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="12">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12">
+        <v>7.6</v>
+      </c>
+      <c r="D9" s="15">
         <v>400</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="20">
-        <v>3</v>
-      </c>
-      <c r="C7" s="20">
-        <v>456</v>
-      </c>
-      <c r="D7" s="20">
-        <v>400</v>
-      </c>
-      <c r="E7" s="26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="D8" s="20">
-        <v>404</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>7</v>
+      <c r="E9" s="22" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1743,99 +1757,99 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="43.1047619047619" customWidth="1"/>
-    <col min="2" max="2" width="14.552380952381" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.552380952381" style="5" customWidth="1"/>
-    <col min="4" max="4" width="33.1047619047619" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.552380952381" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.552380952381" style="12" customWidth="1"/>
+    <col min="4" max="4" width="33.1047619047619" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="20">
-        <v>85</v>
-      </c>
-      <c r="C2" s="20">
+      <c r="A2" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="15">
+        <v>48</v>
+      </c>
+      <c r="C2" s="15">
         <v>200</v>
       </c>
-      <c r="D2" s="20" t="s">
-        <v>45</v>
+      <c r="D2" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3" s="20">
+      <c r="A3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="15">
         <v>2345</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="15">
         <v>404</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>47</v>
+      <c r="D3" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="15">
+        <v>404</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="C5" s="15">
+        <v>404</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" ht="25.5" spans="1:4">
+      <c r="A6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="15">
+        <v>404</v>
+      </c>
+      <c r="D6" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="20">
-        <v>404</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="20">
-        <v>1.2</v>
-      </c>
-      <c r="C5" s="20">
-        <v>404</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" ht="25.5" spans="1:4">
-      <c r="A6" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="20">
-        <v>404</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1849,8 +1863,8 @@
   <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -1862,78 +1876,78 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:7">
-      <c r="A1" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="B1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="12">
+      <c r="B2" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="6">
         <v>401</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="14"/>
+      <c r="E2" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" ht="62" customHeight="1" spans="1:7">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="6">
+        <v>401</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="12">
-        <v>401</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>200</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1947,118 +1961,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="2" width="42.1047619047619" customWidth="1"/>
-    <col min="3" max="3" width="22" customWidth="1"/>
-    <col min="4" max="4" width="20.1047619047619" customWidth="1"/>
-    <col min="5" max="5" width="29.552380952381" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="30" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1047619047619" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="29.3333333333333" customWidth="1"/>
-    <col min="3" max="3" width="11.552380952381" customWidth="1"/>
-    <col min="4" max="4" width="13.552380952381" customWidth="1"/>
-    <col min="5" max="5" width="30.4380952380952" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="63" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="5">
-        <v>10</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2">
-        <v>400</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>